--- a/published-data/fonds-solidarite/fds-2022-06-01/fonds-solidarite-volet-1-departemental-categorie-juridique-latest.xlsx
+++ b/published-data/fonds-solidarite/fds-2022-06-01/fonds-solidarite-volet-1-departemental-categorie-juridique-latest.xlsx
@@ -3919,13 +3919,13 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>105831</v>
+        <v>105832</v>
       </c>
       <c r="D69" t="n">
         <v>22855</v>
       </c>
       <c r="E69" t="n">
-        <v>186651687</v>
+        <v>186654215</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
@@ -6214,13 +6214,13 @@
         </is>
       </c>
       <c r="C114" t="n">
-        <v>88473</v>
+        <v>88474</v>
       </c>
       <c r="D114" t="n">
         <v>14314</v>
       </c>
       <c r="E114" t="n">
-        <v>216759407</v>
+        <v>216759422</v>
       </c>
       <c r="F114" t="inlineStr">
         <is>
@@ -6265,13 +6265,13 @@
         </is>
       </c>
       <c r="C115" t="n">
-        <v>360</v>
+        <v>365</v>
       </c>
       <c r="D115" t="n">
         <v>76</v>
       </c>
       <c r="E115" t="n">
-        <v>1094111</v>
+        <v>1104375</v>
       </c>
       <c r="F115" t="inlineStr">
         <is>
@@ -12232,13 +12232,13 @@
         </is>
       </c>
       <c r="C232" t="n">
-        <v>17578</v>
+        <v>17579</v>
       </c>
       <c r="D232" t="n">
         <v>3904</v>
       </c>
       <c r="E232" t="n">
-        <v>34529253</v>
+        <v>34539253</v>
       </c>
       <c r="F232" t="inlineStr">
         <is>
@@ -22585,13 +22585,13 @@
         </is>
       </c>
       <c r="C435" t="n">
-        <v>20235</v>
+        <v>20236</v>
       </c>
       <c r="D435" t="n">
         <v>4036</v>
       </c>
       <c r="E435" t="n">
-        <v>93031589</v>
+        <v>93034525</v>
       </c>
       <c r="F435" t="inlineStr">
         <is>
@@ -24115,13 +24115,13 @@
         </is>
       </c>
       <c r="C465" t="n">
-        <v>34720</v>
+        <v>34721</v>
       </c>
       <c r="D465" t="n">
         <v>6013</v>
       </c>
       <c r="E465" t="n">
-        <v>152635095</v>
+        <v>152637895</v>
       </c>
       <c r="F465" t="inlineStr">
         <is>
@@ -24472,13 +24472,13 @@
         </is>
       </c>
       <c r="C472" t="n">
-        <v>73757</v>
+        <v>73758</v>
       </c>
       <c r="D472" t="n">
         <v>11997</v>
       </c>
       <c r="E472" t="n">
-        <v>387133975</v>
+        <v>387141631</v>
       </c>
       <c r="F472" t="inlineStr">
         <is>
@@ -24574,13 +24574,13 @@
         </is>
       </c>
       <c r="C474" t="n">
-        <v>74992</v>
+        <v>74994</v>
       </c>
       <c r="D474" t="n">
         <v>11549</v>
       </c>
       <c r="E474" t="n">
-        <v>435318545</v>
+        <v>435430166</v>
       </c>
       <c r="F474" t="inlineStr">
         <is>
@@ -24727,13 +24727,13 @@
         </is>
       </c>
       <c r="C477" t="n">
-        <v>416733</v>
+        <v>416736</v>
       </c>
       <c r="D477" t="n">
         <v>70499</v>
       </c>
       <c r="E477" t="n">
-        <v>725177470</v>
+        <v>725189912</v>
       </c>
       <c r="F477" t="inlineStr">
         <is>
@@ -25084,13 +25084,13 @@
         </is>
       </c>
       <c r="C484" t="n">
-        <v>292067</v>
+        <v>292087</v>
       </c>
       <c r="D484" t="n">
         <v>42565</v>
       </c>
       <c r="E484" t="n">
-        <v>1770153973</v>
+        <v>1770521813</v>
       </c>
       <c r="F484" t="inlineStr">
         <is>
@@ -25186,13 +25186,13 @@
         </is>
       </c>
       <c r="C486" t="n">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="D486" t="n">
         <v>49</v>
       </c>
       <c r="E486" t="n">
-        <v>17455226</v>
+        <v>17518019</v>
       </c>
       <c r="F486" t="inlineStr">
         <is>
@@ -25237,13 +25237,13 @@
         </is>
       </c>
       <c r="C487" t="n">
-        <v>230653</v>
+        <v>230659</v>
       </c>
       <c r="D487" t="n">
         <v>33849</v>
       </c>
       <c r="E487" t="n">
-        <v>1820025477</v>
+        <v>1820055946</v>
       </c>
       <c r="F487" t="inlineStr">
         <is>
@@ -25441,13 +25441,13 @@
         </is>
       </c>
       <c r="C491" t="n">
-        <v>12255</v>
+        <v>12257</v>
       </c>
       <c r="D491" t="n">
         <v>1839</v>
       </c>
       <c r="E491" t="n">
-        <v>76165173</v>
+        <v>76171530</v>
       </c>
       <c r="F491" t="inlineStr">
         <is>
@@ -25492,13 +25492,13 @@
         </is>
       </c>
       <c r="C492" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D492" t="n">
         <v>7</v>
       </c>
       <c r="E492" t="n">
-        <v>2058873</v>
+        <v>2246560</v>
       </c>
       <c r="F492" t="inlineStr">
         <is>
@@ -26155,13 +26155,13 @@
         </is>
       </c>
       <c r="C505" t="n">
-        <v>184259</v>
+        <v>184261</v>
       </c>
       <c r="D505" t="n">
         <v>27737</v>
       </c>
       <c r="E505" t="n">
-        <v>332734069</v>
+        <v>332736181</v>
       </c>
       <c r="F505" t="inlineStr">
         <is>
@@ -28705,13 +28705,13 @@
         </is>
       </c>
       <c r="C555" t="n">
-        <v>18459</v>
+        <v>18462</v>
       </c>
       <c r="D555" t="n">
         <v>3296</v>
       </c>
       <c r="E555" t="n">
-        <v>73371235</v>
+        <v>73574082</v>
       </c>
       <c r="F555" t="inlineStr">
         <is>
@@ -36253,13 +36253,13 @@
         </is>
       </c>
       <c r="C703" t="n">
-        <v>36230</v>
+        <v>36231</v>
       </c>
       <c r="D703" t="n">
         <v>6909</v>
       </c>
       <c r="E703" t="n">
-        <v>183952297</v>
+        <v>183977808</v>
       </c>
       <c r="F703" t="inlineStr">
         <is>
@@ -43852,13 +43852,13 @@
         </is>
       </c>
       <c r="C852" t="n">
-        <v>27077</v>
+        <v>27078</v>
       </c>
       <c r="D852" t="n">
         <v>5532</v>
       </c>
       <c r="E852" t="n">
-        <v>133386949</v>
+        <v>133388194</v>
       </c>
       <c r="F852" t="inlineStr">
         <is>
@@ -47218,13 +47218,13 @@
         </is>
       </c>
       <c r="C918" t="n">
-        <v>79085</v>
+        <v>79087</v>
       </c>
       <c r="D918" t="n">
         <v>13383</v>
       </c>
       <c r="E918" t="n">
-        <v>391609737</v>
+        <v>391826225</v>
       </c>
       <c r="F918" t="inlineStr">
         <is>
